--- a/biology/Biologie cellulaire et moléculaire/Complémentarité_des_bases_azotées/Complémentarité_des_bases_azotées.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Complémentarité_des_bases_azotées/Complémentarité_des_bases_azotées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Compl%C3%A9mentarit%C3%A9_des_bases_azot%C3%A9es</t>
+          <t>Complémentarité_des_bases_azotées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les phénomènes de la réplication, de la réparation, de la  transcription et de la traduction utilisent ce que l'on appelle la complémentarité des bases azotées. Au cours de ces processus, des paires de bases se forment. Ces paires sont les suivantes :
 L'utilisation de l'inosine I est un des phénomènes de wobble pairing car plusieurs choix sont possibles pour l'appariement.
